--- a/accounts/management/commands/roles.xlsx
+++ b/accounts/management/commands/roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\project_activity_server\accounts\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{362753D5-0029-4CEE-BA28-8315F0CB2420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BC236-27A8-4EDA-9A9F-A145FDED3EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C27FE6D-780D-4D2D-8594-BFF834247B04}"/>
   </bookViews>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,9 +60,6 @@
     <t>tutor</t>
   </si>
   <si>
-    <t>Наставник</t>
-  </si>
-  <si>
     <t>partner</t>
   </si>
   <si>
@@ -81,13 +81,16 @@
     <t>Ответственный от института</t>
   </si>
   <si>
-    <t>Ответственный от кафедры</t>
-  </si>
-  <si>
     <t>Преподаватель</t>
   </si>
   <si>
     <t>mentor</t>
+  </si>
+  <si>
+    <t>Представитель кафедры</t>
+  </si>
+  <si>
+    <t>Сотрудник</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,47 +484,47 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
